--- a/KnowledgeGraph/data/cost.xlsx
+++ b/KnowledgeGraph/data/cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="20760" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,60 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>名词</t>
   </si>
   <si>
+    <t>别称</t>
+  </si>
+  <si>
     <t>定义</t>
   </si>
   <si>
     <t>理财计划费用</t>
   </si>
   <si>
-    <t xml:space="preserve">指管理人为成立理财计划及处理理财计划事务目的而支出的所有费用，包 括但不限于管理人收取的固定投资管理费、托管人收取的托管费、销售机构收取的销售服务费、 交易费用（包含但不限于交易佣金、撮合费用等）、理财计划验资费、审计费、律师费、信息 披露费、清算费、执行费用等相关费用，具体以约定为准。 </t>
+    <t>理财费用,计划费用</t>
+  </si>
+  <si>
+    <t>指管理人为成立理财计划及处理理财计划事务目的而支出的所有费用,包 括但不限于管理人收取的固定投资管理费、托管人收取的托管费、销售机构收取的销售服务费、 交易费用（包含但不限于交易佣金、撮合费用等）、理财计划验资费、审计费、律师费、信息 披露费、清算费、执行费用等相关费用,具体以约定为准。</t>
   </si>
   <si>
     <t>执行费用</t>
   </si>
   <si>
-    <t xml:space="preserve">指与标的资产或标的资产投资相关且为理财计划利益目的而进行的诉讼或仲裁 等法律程序相关的费用，包括但不限于诉讼费、仲裁费、财产保全费、律师费和执行费，以及 因诉讼或仲裁之需要而委托中介机构或司法机构进行鉴定、评估等而产生的费用。 </t>
+    <t>法律费用,法律花销,维权费用</t>
+  </si>
+  <si>
+    <t>指与标的资产或标的资产投资相关且为理财计划利益目的而进行的诉讼或仲裁 等法律程序相关的费用,包括但不限于诉讼费、仲裁费、财产保全费、律师费和执行费,以及 因诉讼或仲裁之需要而委托中介机构或司法机构进行鉴定、评估等而产生的费用。</t>
   </si>
   <si>
     <t>理财计划税费</t>
   </si>
   <si>
-    <t xml:space="preserve">指根据适用法律和理财计划文件规定，理财计划应缴纳和承担的税收和有 权政府部门向理财计划征收的规费。 </t>
+    <t>税收费用,税费</t>
+  </si>
+  <si>
+    <t>指根据适用法律和理财计划文件规定,理财计划应缴纳和承担的税收和有 权政府部门向理财计划征收的规费。</t>
   </si>
   <si>
     <t>托管费</t>
   </si>
   <si>
+    <t>代理费用,代理费</t>
+  </si>
+  <si>
     <t>托管费是指托管人为基金提供服务而向基金收取的费用.</t>
   </si>
   <si>
     <t>销售手续费/销售管理费</t>
   </si>
   <si>
+    <t>销售费</t>
+  </si>
+  <si>
     <t>按照一定固定比例收取的提供销售服务收取的费用。</t>
   </si>
   <si>
     <t>投资管理费</t>
   </si>
   <si>
+    <t>投资费</t>
+  </si>
+  <si>
     <t>按照一定固定比例收取的提供投资服务收取的费用。</t>
   </si>
   <si>
     <t>固定管理费</t>
   </si>
   <si>
+    <t>管理费,服务费</t>
+  </si>
+  <si>
     <t>按照一定固定比例收取的提供管理服务收取的费用。</t>
   </si>
   <si>
     <t>浮动管理费/超额管理费</t>
   </si>
   <si>
-    <t>产品扣除销售手续费、托管费及固定管理费等费用后，本产品年化收益率未超过业绩比较基准一定比例的（该比例来自于选择进行理财投资的银行），投资管理人不收取浮动管理费；年化收益率超过业绩比较基准一定比例的部分，收取规定比例的浮动管理费。</t>
+    <t>超额费,浮动费,管理费</t>
+  </si>
+  <si>
+    <t>产品扣除销售手续费、托管费及固定管理费等费用后,本产品年化收益率未超过业绩比较基准一定比例的（该比例来自于选择进行理财投资的银行）,投资管理人不收取浮动管理费；年化收益率超过业绩比较基准一定比例的部分,收取规定比例的浮动管理费。</t>
   </si>
 </sst>
 </file>
@@ -75,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,7 +117,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -104,16 +147,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,13 +164,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -135,16 +186,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,21 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,44 +240,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,12 +269,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -267,19 +305,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,145 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +474,50 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,52 +555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -694,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,84 +1036,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
